--- a/111.xlsx
+++ b/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9780"/>
+    <workbookView windowWidth="17651" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1665,7 +1665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1685,9 +1685,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,8 +2212,8 @@
   <sheetPr/>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -2332,7 +2329,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="7">
-        <v>45087</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:16">
@@ -2381,8 +2378,8 @@
       <c r="O3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="8">
-        <v>45809</v>
+      <c r="P3" s="7">
+        <v>45810</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:16">
@@ -2431,8 +2428,8 @@
       <c r="O4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="8">
-        <v>45809</v>
+      <c r="P4" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:16">
@@ -2481,8 +2478,8 @@
       <c r="O5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="8">
-        <v>45809</v>
+      <c r="P5" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:16">
@@ -2531,8 +2528,8 @@
       <c r="O6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="8">
-        <v>45809</v>
+      <c r="P6" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:16">
@@ -2581,8 +2578,8 @@
       <c r="O7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="8">
-        <v>45810</v>
+      <c r="P7" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:16">
@@ -2631,8 +2628,8 @@
       <c r="O8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="8">
-        <v>45810</v>
+      <c r="P8" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:16">
@@ -2681,8 +2678,8 @@
       <c r="O9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="8">
-        <v>45810</v>
+      <c r="P9" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:16">
@@ -2731,8 +2728,8 @@
       <c r="O10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="8">
-        <v>45810</v>
+      <c r="P10" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:16">
@@ -2781,8 +2778,8 @@
       <c r="O11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="8">
-        <v>45811</v>
+      <c r="P11" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:16">
@@ -2831,8 +2828,8 @@
       <c r="O12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="8">
-        <v>45811</v>
+      <c r="P12" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:16">
@@ -2881,8 +2878,8 @@
       <c r="O13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="8">
-        <v>45811</v>
+      <c r="P13" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:16">
@@ -2931,8 +2928,8 @@
       <c r="O14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="8">
-        <v>45811</v>
+      <c r="P14" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:16">
@@ -2981,8 +2978,8 @@
       <c r="O15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="8">
-        <v>45812</v>
+      <c r="P15" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:16">
@@ -3031,8 +3028,8 @@
       <c r="O16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="8">
-        <v>45812</v>
+      <c r="P16" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:16">
@@ -3081,8 +3078,8 @@
       <c r="O17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="8">
-        <v>45812</v>
+      <c r="P17" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:16">
@@ -3131,8 +3128,8 @@
       <c r="O18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="8">
-        <v>45812</v>
+      <c r="P18" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:16">
@@ -3181,8 +3178,8 @@
       <c r="O19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="8">
-        <v>45813</v>
+      <c r="P19" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:16">
@@ -3231,8 +3228,8 @@
       <c r="O20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="8">
-        <v>45813</v>
+      <c r="P20" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:16">
@@ -3281,8 +3278,8 @@
       <c r="O21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="8">
-        <v>45813</v>
+      <c r="P21" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:16">
@@ -3331,8 +3328,8 @@
       <c r="O22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="8">
-        <v>45813</v>
+      <c r="P22" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:16">
@@ -3381,8 +3378,8 @@
       <c r="O23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="8">
-        <v>45814</v>
+      <c r="P23" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:16">
@@ -3431,8 +3428,8 @@
       <c r="O24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P24" s="8">
-        <v>45814</v>
+      <c r="P24" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="25" ht="50" customHeight="1" spans="1:16">
@@ -3481,8 +3478,8 @@
       <c r="O25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="8">
-        <v>45814</v>
+      <c r="P25" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:16">
@@ -3531,8 +3528,8 @@
       <c r="O26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="8">
-        <v>45814</v>
+      <c r="P26" s="7">
+        <v>45819</v>
       </c>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:16">
@@ -3581,8 +3578,8 @@
       <c r="O27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="8">
-        <v>45815</v>
+      <c r="P27" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:16">
@@ -3631,8 +3628,8 @@
       <c r="O28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P28" s="8">
-        <v>45815</v>
+      <c r="P28" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:16">
@@ -3681,8 +3678,8 @@
       <c r="O29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="8">
-        <v>45815</v>
+      <c r="P29" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:16">
@@ -3731,8 +3728,8 @@
       <c r="O30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="8">
-        <v>45815</v>
+      <c r="P30" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:16">
@@ -3781,8 +3778,8 @@
       <c r="O31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P31" s="8">
-        <v>45816</v>
+      <c r="P31" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:16">
@@ -3831,8 +3828,8 @@
       <c r="O32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P32" s="8">
-        <v>45816</v>
+      <c r="P32" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:16">
@@ -3881,8 +3878,8 @@
       <c r="O33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P33" s="8">
-        <v>45816</v>
+      <c r="P33" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:16">
@@ -3931,8 +3928,8 @@
       <c r="O34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P34" s="8">
-        <v>45816</v>
+      <c r="P34" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:16">
@@ -3981,8 +3978,8 @@
       <c r="O35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P35" s="8">
-        <v>45817</v>
+      <c r="P35" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:16">
@@ -4031,8 +4028,8 @@
       <c r="O36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P36" s="8">
-        <v>45817</v>
+      <c r="P36" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:16">
@@ -4081,8 +4078,8 @@
       <c r="O37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P37" s="8">
-        <v>45817</v>
+      <c r="P37" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:16">
@@ -4131,8 +4128,8 @@
       <c r="O38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="8">
-        <v>45817</v>
+      <c r="P38" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:16">
@@ -4181,8 +4178,8 @@
       <c r="O39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P39" s="8">
-        <v>45818</v>
+      <c r="P39" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:16">
@@ -4231,8 +4228,8 @@
       <c r="O40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P40" s="8">
-        <v>45818</v>
+      <c r="P40" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:16">
@@ -4281,8 +4278,8 @@
       <c r="O41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P41" s="8">
-        <v>45818</v>
+      <c r="P41" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:16">
@@ -4331,8 +4328,8 @@
       <c r="O42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="8">
-        <v>45818</v>
+      <c r="P42" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:16">
@@ -4381,8 +4378,8 @@
       <c r="O43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P43" s="8">
-        <v>45819</v>
+      <c r="P43" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:16">
@@ -4431,8 +4428,8 @@
       <c r="O44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="8">
-        <v>45819</v>
+      <c r="P44" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:16">
@@ -4481,8 +4478,8 @@
       <c r="O45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P45" s="8">
-        <v>45819</v>
+      <c r="P45" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:16">
@@ -4531,8 +4528,8 @@
       <c r="O46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P46" s="8">
-        <v>45819</v>
+      <c r="P46" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:16">
@@ -4581,7 +4578,7 @@
       <c r="O47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="7">
         <v>45820</v>
       </c>
     </row>
@@ -4631,7 +4628,7 @@
       <c r="O48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="7">
         <v>45820</v>
       </c>
     </row>
@@ -4681,7 +4678,7 @@
       <c r="O49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="7">
         <v>45820</v>
       </c>
     </row>
@@ -4731,7 +4728,7 @@
       <c r="O50" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="8">
+      <c r="P50" s="7">
         <v>45820</v>
       </c>
     </row>
@@ -4781,8 +4778,8 @@
       <c r="O51" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P51" s="8">
-        <v>45821</v>
+      <c r="P51" s="7">
+        <v>45820</v>
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:16">
@@ -4831,8 +4828,8 @@
       <c r="O52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P52" s="8">
-        <v>45821</v>
+      <c r="P52" s="7">
+        <v>45820</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17651" windowHeight="9612"/>
+    <workbookView windowWidth="23028" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -999,11 +999,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1687,7 +1688,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2212,8 +2213,8 @@
   <sheetPr/>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>

--- a/111.xlsx
+++ b/111.xlsx
@@ -1004,7 +1004,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>

--- a/111.xlsx
+++ b/111.xlsx
@@ -2213,8 +2213,8 @@
   <sheetPr/>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>

--- a/111.xlsx
+++ b/111.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="321">
   <si>
     <t>序号</t>
   </si>
@@ -87,16 +87,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>天钥桥路</t>
     </r>
     <r>
       <rPr>
-        <sz val="11.25"/>
+        <sz val="11.5"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
@@ -104,7 +99,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.25"/>
+        <sz val="11.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -209,6 +204,9 @@
     <t>暑假单</t>
   </si>
   <si>
+    <t>2025/5/11</t>
+  </si>
+  <si>
     <t>ZY0606733</t>
   </si>
   <si>
@@ -218,7 +216,7 @@
     <t>黄浦区</t>
   </si>
   <si>
-    <t>黄浦区南京东路 123 号</t>
+    <t>南京东路123号</t>
   </si>
   <si>
     <t>小学</t>
@@ -242,10 +240,13 @@
     <t>大学生单</t>
   </si>
   <si>
+    <t>2025/5/12</t>
+  </si>
+  <si>
     <t>ZY0606734</t>
   </si>
   <si>
-    <t>徐汇区淮海中路 456 号</t>
+    <t>淮海中路456号</t>
   </si>
   <si>
     <t>初中</t>
@@ -263,6 +264,9 @@
     <t>重点大学学生，英语专业优先</t>
   </si>
   <si>
+    <t>2025/5/13</t>
+  </si>
+  <si>
     <t>ZY0606735</t>
   </si>
   <si>
@@ -272,7 +276,7 @@
     <t>长宁区</t>
   </si>
   <si>
-    <t>长宁区延安西路 789 号</t>
+    <t>延安西路789号</t>
   </si>
   <si>
     <t>高中</t>
@@ -296,13 +300,16 @@
     <t>专职单</t>
   </si>
   <si>
+    <t>2025/5/14</t>
+  </si>
+  <si>
     <t>ZY0606736</t>
   </si>
   <si>
     <t>静安区</t>
   </si>
   <si>
-    <t>静安区威海路 321 号</t>
+    <t>威海路321号</t>
   </si>
   <si>
     <t>语文</t>
@@ -317,13 +324,16 @@
     <t>本科及以上学历，有小学语文教学经验</t>
   </si>
   <si>
+    <t>2025/5/15</t>
+  </si>
+  <si>
     <t>ZY0606737</t>
   </si>
   <si>
     <t>普陀区</t>
   </si>
   <si>
-    <t>普陀区长寿路 987 号</t>
+    <t>长寿路987号</t>
   </si>
   <si>
     <t>男孩，性格急躁，成绩中等偏下</t>
@@ -335,13 +345,16 @@
     <t>有初中数学教学经验，耐心细致</t>
   </si>
   <si>
+    <t>2025/5/16</t>
+  </si>
+  <si>
     <t>ZY0606738</t>
   </si>
   <si>
     <t>虹口区</t>
   </si>
   <si>
-    <t>虹口区四川北路 654 号</t>
+    <t>四川北路654号</t>
   </si>
   <si>
     <t>化学</t>
@@ -356,13 +369,16 @@
     <t>化学专业，有高中化学教学经验</t>
   </si>
   <si>
+    <t>2025/5/17</t>
+  </si>
+  <si>
     <t>ZY0606739</t>
   </si>
   <si>
     <t>杨浦区</t>
   </si>
   <si>
-    <t>杨浦区五角场 258 号</t>
+    <t>五角场258号</t>
   </si>
   <si>
     <t>女孩，性格活泼，口语表达能力弱</t>
@@ -377,13 +393,16 @@
     <t>线下授课，薪资月结</t>
   </si>
   <si>
+    <t>2025/5/18</t>
+  </si>
+  <si>
     <t>ZY0606740</t>
   </si>
   <si>
     <t>浦东新区</t>
   </si>
   <si>
-    <t>浦东新区张杨路 1234 号</t>
+    <t>张杨路1234号</t>
   </si>
   <si>
     <t>男孩，性格内向，写作能力差</t>
@@ -395,13 +414,34 @@
     <t>有初中语文教学经验，善于引导学生写作</t>
   </si>
   <si>
+    <t>2025/5/19</t>
+  </si>
+  <si>
     <t>ZY0606741</t>
   </si>
   <si>
     <t>闵行区</t>
   </si>
   <si>
-    <t>闵行区虹桥路 876 号</t>
+    <r>
+      <t>天钥桥路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弄</t>
+    </r>
   </si>
   <si>
     <t>生物</t>
@@ -416,13 +456,16 @@
     <t>生物专业，有高中生物教学经验</t>
   </si>
   <si>
+    <t>2025/5/20</t>
+  </si>
+  <si>
     <t>ZY0606742</t>
   </si>
   <si>
     <t>宝山区</t>
   </si>
   <si>
-    <t>宝山区牡丹江路 532 号</t>
+    <t>南京东路124号</t>
   </si>
   <si>
     <t>科学</t>
@@ -437,13 +480,16 @@
     <t>有小学科学教学经验，善于激发学生兴趣</t>
   </si>
   <si>
+    <t>2025/5/21</t>
+  </si>
+  <si>
     <t>ZY0606743</t>
   </si>
   <si>
     <t>嘉定区</t>
   </si>
   <si>
-    <t>嘉定区金沙江路 753 号</t>
+    <t>淮海中路457号</t>
   </si>
   <si>
     <t>历史</t>
@@ -458,13 +504,16 @@
     <t>历史专业，有初中历史教学经验</t>
   </si>
   <si>
+    <t>2025/5/22</t>
+  </si>
+  <si>
     <t>ZY0606744</t>
   </si>
   <si>
     <t>金山区</t>
   </si>
   <si>
-    <t>金山区蒙山北路 431 号</t>
+    <t>延安西路790号</t>
   </si>
   <si>
     <t>地理</t>
@@ -479,13 +528,16 @@
     <t>地理专业，有高中地理教学经验</t>
   </si>
   <si>
+    <t>2025/5/23</t>
+  </si>
+  <si>
     <t>ZY0606745</t>
   </si>
   <si>
     <t>松江区</t>
   </si>
   <si>
-    <t>松江区松江大道 222 号</t>
+    <t>威海路322号</t>
   </si>
   <si>
     <t>音乐</t>
@@ -500,13 +552,16 @@
     <t>有小学音乐教学经验，能弹奏多种乐器</t>
   </si>
   <si>
+    <t>2025/5/24</t>
+  </si>
+  <si>
     <t>ZY0606746</t>
   </si>
   <si>
     <t>青浦区</t>
   </si>
   <si>
-    <t>青浦区盈港东路 333 号</t>
+    <t>长寿路988号</t>
   </si>
   <si>
     <t>政治</t>
@@ -521,13 +576,16 @@
     <t>政治专业，有初中政治教学经验</t>
   </si>
   <si>
+    <t>2025/5/25</t>
+  </si>
+  <si>
     <t>ZY0606747</t>
   </si>
   <si>
     <t>奉贤区</t>
   </si>
   <si>
-    <t>奉贤区南桥路 666 号</t>
+    <t>四川北路655号</t>
   </si>
   <si>
     <t>信息技术</t>
@@ -539,13 +597,16 @@
     <t>计算机专业，有高中信息技术教学经验</t>
   </si>
   <si>
+    <t>2025/5/26</t>
+  </si>
+  <si>
     <t>ZY0606748</t>
   </si>
   <si>
     <t>崇明区</t>
   </si>
   <si>
-    <t>崇明区城桥镇 555 号</t>
+    <t>五角场259号</t>
   </si>
   <si>
     <t>美术</t>
@@ -560,10 +621,13 @@
     <t>有小学美术教学经验，擅长素描和水彩</t>
   </si>
   <si>
+    <t>2025/5/27</t>
+  </si>
+  <si>
     <t>ZY0606749</t>
   </si>
   <si>
-    <t>黄浦区人民广场 88 号</t>
+    <t>张杨路1235号</t>
   </si>
   <si>
     <t>男孩，成绩中等，解题技巧欠缺</t>
@@ -575,10 +639,31 @@
     <t>有初中数学教学经验，善于讲解解题思路</t>
   </si>
   <si>
+    <t>2025/5/28</t>
+  </si>
+  <si>
     <t>ZY0606750</t>
   </si>
   <si>
-    <t>徐汇区徐家汇 168 号</t>
+    <r>
+      <t>天钥桥路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>193</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弄</t>
+    </r>
   </si>
   <si>
     <t>女孩，性格内向，英语成绩较差</t>
@@ -587,10 +672,13 @@
     <t>英语专业，有高中英语教学经验，口语流利</t>
   </si>
   <si>
+    <t>2025/5/29</t>
+  </si>
+  <si>
     <t>ZY0606751</t>
   </si>
   <si>
-    <t>长宁区中山公园 333 号</t>
+    <t>南京东路125号</t>
   </si>
   <si>
     <t>双胞胎，男孩女孩，阅读理解能力弱</t>
@@ -599,10 +687,13 @@
     <t>有小学语文教学经验，耐心细致，善于引导学生阅读</t>
   </si>
   <si>
+    <t>2025/5/30</t>
+  </si>
+  <si>
     <t>ZY0606752</t>
   </si>
   <si>
-    <t>静安区南京西路 999 号</t>
+    <t>淮海中路458号</t>
   </si>
   <si>
     <t>男孩，性格沉稳，物理概念理解困难</t>
@@ -614,10 +705,13 @@
     <t>物理专业，有初中物理教学经验</t>
   </si>
   <si>
+    <t>2025/6/1</t>
+  </si>
+  <si>
     <t>ZY0606753</t>
   </si>
   <si>
-    <t>普陀区兰溪路 128 号</t>
+    <t>延安西路791号</t>
   </si>
   <si>
     <t>女孩，性格开朗，化学成绩中等偏下</t>
@@ -626,10 +720,13 @@
     <t>周一、三、五 20:00-21:30</t>
   </si>
   <si>
+    <t>2025/6/2</t>
+  </si>
+  <si>
     <t>ZY0606754</t>
   </si>
   <si>
-    <t>虹口区鲁迅公园 777 号</t>
+    <t>威海路323号</t>
   </si>
   <si>
     <t>男孩，性格内向，口语表达能力弱</t>
@@ -638,10 +735,13 @@
     <t>周六日 10:00-11:30</t>
   </si>
   <si>
+    <t>2025/6/3</t>
+  </si>
+  <si>
     <t>ZY0606755</t>
   </si>
   <si>
-    <t>杨浦区杨浦大桥 444 号</t>
+    <t>长寿路989号</t>
   </si>
   <si>
     <t>周二至周六 18:00-19:30</t>
@@ -650,10 +750,13 @@
     <t>生物专业，有初中生物教学经验，实验教学经验丰富</t>
   </si>
   <si>
+    <t>2025/6/4</t>
+  </si>
+  <si>
     <t>ZY0606756</t>
   </si>
   <si>
-    <t>浦东新区世纪大道 555 号</t>
+    <t>四川北路656号</t>
   </si>
   <si>
     <t>男孩，性格文静，空间思维能力弱</t>
@@ -665,10 +768,13 @@
     <t>地理专业，有高中地理教学经验，善于地图教学</t>
   </si>
   <si>
+    <t>2025/6/5</t>
+  </si>
+  <si>
     <t>ZY0606757</t>
   </si>
   <si>
-    <t>闵行区莘庄 333 号</t>
+    <t>五角场260号</t>
   </si>
   <si>
     <t>周六日 15:00-16:30</t>
@@ -677,10 +783,13 @@
     <t>有小学科学教学经验，善于激发学生兴趣，实验器材齐全</t>
   </si>
   <si>
+    <t>2025/6/6</t>
+  </si>
+  <si>
     <t>ZY0606758</t>
   </si>
   <si>
-    <t>宝山区宝杨路 888 号</t>
+    <t>张杨路1236号</t>
   </si>
   <si>
     <t>女孩，性格内向，历史知识掌握不牢</t>
@@ -692,10 +801,31 @@
     <t>历史专业，有初中历史教学经验，善于故事化教学</t>
   </si>
   <si>
+    <t>2025/6/7</t>
+  </si>
+  <si>
     <t>ZY0606759</t>
   </si>
   <si>
-    <t>嘉定区嘉定新城 222 号</t>
+    <r>
+      <t>天钥桥路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>194</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弄</t>
+    </r>
   </si>
   <si>
     <t>男孩，性格沉稳，逻辑思维能力弱</t>
@@ -707,10 +837,13 @@
     <t>政治专业，有高中政治教学经验，善于逻辑分析</t>
   </si>
   <si>
+    <t>2025/6/8</t>
+  </si>
+  <si>
     <t>ZY0606760</t>
   </si>
   <si>
-    <t>金山区石化 666 号</t>
+    <t>南京东路126号</t>
   </si>
   <si>
     <t>女孩，性格活泼，乐感较差</t>
@@ -719,10 +852,13 @@
     <t>有小学音乐教学经验，擅长声乐和乐器演奏</t>
   </si>
   <si>
+    <t>2025/6/9</t>
+  </si>
+  <si>
     <t>ZY0606761</t>
   </si>
   <si>
-    <t>松江区松江大学城 555 号</t>
+    <t>淮海中路459号</t>
   </si>
   <si>
     <t>男孩，性格开朗，计算机操作不熟练</t>
@@ -731,24 +867,24 @@
     <t>计算机专业，有初中信息技术教学经验，熟悉编程语言</t>
   </si>
   <si>
+    <t>2025/6/10</t>
+  </si>
+  <si>
     <t>ZY0606762</t>
   </si>
   <si>
-    <t>青浦区朱家角 111 号</t>
-  </si>
-  <si>
     <t>女孩，性格文静，绘画基础薄弱</t>
   </si>
   <si>
     <t>美术专业，有高中美术教学经验，擅长素描和色彩</t>
   </si>
   <si>
+    <t>2025/6/11</t>
+  </si>
+  <si>
     <t>ZY0606763</t>
   </si>
   <si>
-    <t>奉贤区南桥 888 号</t>
-  </si>
-  <si>
     <t>体育</t>
   </si>
   <si>
@@ -761,36 +897,36 @@
     <t>体育专业，有小学体育教学经验，擅长篮球和足球教学</t>
   </si>
   <si>
+    <t>2025/6/12</t>
+  </si>
+  <si>
     <t>ZY0606764</t>
   </si>
   <si>
-    <t>崇明区崇明中学 555 号</t>
-  </si>
-  <si>
     <t>女孩，成绩中等，解题技巧欠缺</t>
   </si>
   <si>
     <t>有初中数学教学经验，善于讲解解题思路和方法</t>
   </si>
   <si>
+    <t>2025/6/13</t>
+  </si>
+  <si>
     <t>ZY0606765</t>
   </si>
   <si>
-    <t>黄浦区外滩 999 号</t>
-  </si>
-  <si>
     <t>男孩，性格内向，英语成绩较差</t>
   </si>
   <si>
     <t>英语专业，有高中英语教学经验，口语流利，善于语法教学</t>
   </si>
   <si>
+    <t>2025/6/14</t>
+  </si>
+  <si>
     <t>ZY0606766</t>
   </si>
   <si>
-    <t>徐汇区桂林公园 333 号</t>
-  </si>
-  <si>
     <t>男孩，性格急躁，阅读理解能力弱</t>
   </si>
   <si>
@@ -800,36 +936,36 @@
     <t>有小学语文教学经验，善于引导学生阅读和写作</t>
   </si>
   <si>
+    <t>2025/6/15</t>
+  </si>
+  <si>
     <t>ZY0606767</t>
   </si>
   <si>
-    <t>长宁区天山公园 222 号</t>
-  </si>
-  <si>
     <t>女孩，性格开朗，物理概念理解困难</t>
   </si>
   <si>
     <t>物理专业，有初中物理教学经验，实验教学经验丰富</t>
   </si>
   <si>
+    <t>2025/6/16</t>
+  </si>
+  <si>
     <t>ZY0606768</t>
   </si>
   <si>
-    <t>静安区静安寺 168 号</t>
-  </si>
-  <si>
     <t>男孩，性格沉稳，化学成绩中等偏下</t>
   </si>
   <si>
     <t>化学专业，有高中化学教学经验，善于实验教学</t>
   </si>
   <si>
+    <t>2025/6/17</t>
+  </si>
+  <si>
     <t>ZY0606769</t>
   </si>
   <si>
-    <t>普陀区真北路 999 号</t>
-  </si>
-  <si>
     <t>女孩，性格文静，口语表达能力弱</t>
   </si>
   <si>
@@ -839,81 +975,81 @@
     <t>英语专业，有小学英语教学经验，发音标准，善于口语教学</t>
   </si>
   <si>
+    <t>2025/6/18</t>
+  </si>
+  <si>
     <t>ZY0606770</t>
   </si>
   <si>
-    <t>虹口区北外滩 666 号</t>
-  </si>
-  <si>
     <t>男孩，性格内向，实验操作能力弱</t>
   </si>
   <si>
     <t>生物专业，有初中生物教学经验，善于激发学生兴趣</t>
   </si>
   <si>
+    <t>2025/6/19</t>
+  </si>
+  <si>
     <t>ZY0606771</t>
   </si>
   <si>
-    <t>杨浦区复旦大学 555 号</t>
-  </si>
-  <si>
     <t>女孩，性格活泼，空间思维能力弱</t>
   </si>
   <si>
     <t>地理专业，有高中地理教学经验，善于地图教学和空间分析</t>
   </si>
   <si>
+    <t>2025/6/20</t>
+  </si>
+  <si>
     <t>ZY0606772</t>
   </si>
   <si>
-    <t>浦东新区陆家嘴 888 号</t>
-  </si>
-  <si>
     <t>有小学科学教学经验，善于实验教学，实验器材齐全</t>
   </si>
   <si>
+    <t>2025/6/21</t>
+  </si>
+  <si>
     <t>ZY0606773</t>
   </si>
   <si>
-    <t>闵行区七宝 333 号</t>
-  </si>
-  <si>
     <t>女孩，性格沉稳，历史知识掌握不牢</t>
   </si>
   <si>
     <t>历史专业，有初中历史教学经验，善于故事化教学和历史事件分析</t>
   </si>
   <si>
+    <t>2025/6/22</t>
+  </si>
+  <si>
     <t>ZY0606774</t>
   </si>
   <si>
-    <t>宝山区吴淞 777 号</t>
-  </si>
-  <si>
     <t>男孩，性格开朗，逻辑思维能力弱</t>
   </si>
   <si>
     <t>政治专业，有高中政治教学经验，善于逻辑分析和时事热点讲解</t>
   </si>
   <si>
+    <t>2025/6/23</t>
+  </si>
+  <si>
     <t>ZY0606775</t>
   </si>
   <si>
-    <t>嘉定区安亭 222 号</t>
-  </si>
-  <si>
     <t>周二、四、六 15:00-16:30</t>
   </si>
   <si>
     <t>有小学音乐教学经验，擅长声乐和乐器演奏，教学经验丰富</t>
   </si>
   <si>
+    <t>2025/6/24</t>
+  </si>
+  <si>
     <t>ZY0606776</t>
   </si>
   <si>
-    <t>金山区金山卫 555 号</t>
-  </si>
-  <si>
     <t>男孩，性格文静，计算机操作不熟练</t>
   </si>
   <si>
@@ -923,24 +1059,24 @@
     <t>计算机专业，有初中信息技术教学经验，熟悉多种编程语言</t>
   </si>
   <si>
+    <t>2025/6/25</t>
+  </si>
+  <si>
     <t>ZY0606777</t>
   </si>
   <si>
-    <t>松江区佘山 888 号</t>
-  </si>
-  <si>
     <t>男孩，性格急躁，绘画基础薄弱</t>
   </si>
   <si>
     <t>美术专业，有高中美术教学经验，擅长素描和色彩，能因材施教</t>
   </si>
   <si>
+    <t>2025/6/26</t>
+  </si>
+  <si>
     <t>ZY0606778</t>
   </si>
   <si>
-    <t>青浦区东方绿舟 333 号</t>
-  </si>
-  <si>
     <t>女孩，性格活泼，体育成绩一般</t>
   </si>
   <si>
@@ -950,12 +1086,12 @@
     <t>体育专业，有小学体育教学经验，擅长篮球、足球和田径教学</t>
   </si>
   <si>
+    <t>2025/6/27</t>
+  </si>
+  <si>
     <t>ZY0606779</t>
   </si>
   <si>
-    <t>奉贤区奉浦四季生态园 666 号</t>
-  </si>
-  <si>
     <t>男孩，性格内向，解题技巧欠缺</t>
   </si>
   <si>
@@ -965,48 +1101,50 @@
     <t>有初中数学教学经验，善于讲解解题思路和方法，教学耐心细致</t>
   </si>
   <si>
+    <t>2025/6/28</t>
+  </si>
+  <si>
     <t>ZY0606780</t>
   </si>
   <si>
-    <t>崇明区东平国家森林公园 999 号</t>
-  </si>
-  <si>
     <t>女孩，性格开朗，英语成绩较差</t>
   </si>
   <si>
     <t>英语专业，有高中英语教学经验，口语流利，善于语法和写作教学</t>
   </si>
   <si>
+    <t>2025/6/29</t>
+  </si>
+  <si>
     <t>ZY0606781</t>
   </si>
   <si>
-    <t>黄浦区豫园 123 号</t>
-  </si>
-  <si>
     <t>有小学语文教学经验，善于引导学生阅读和写作，有双胞胎教学经验</t>
   </si>
   <si>
+    <t>2025/6/30</t>
+  </si>
+  <si>
     <t>ZY0606782</t>
   </si>
   <si>
-    <t>徐汇区上海体育馆 444 号</t>
-  </si>
-  <si>
     <t>物理专业，有初中物理教学经验，善于实验教学和概念讲解</t>
+  </si>
+  <si>
+    <t>2025/6/31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1038,9 +1176,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1193,6 +1342,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1521,28 +1675,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1551,122 +1696,131 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1685,10 +1839,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2213,8 +2373,8 @@
   <sheetPr/>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -2296,7 +2456,7 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2329,108 +2489,108 @@
       <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7">
-        <v>45809</v>
+      <c r="P2" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:16">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="6">
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="7">
         <v>150</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>13812345678</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="7">
-        <v>45810</v>
+      <c r="O3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:16">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="6">
+      <c r="I4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="7">
         <v>180</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>13987654321</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="7">
-        <v>45819</v>
+      <c r="P4" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:16">
@@ -2438,149 +2598,149 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="6">
+      <c r="H5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="7">
         <v>200</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>13765432198</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="7">
-        <v>45819</v>
+      <c r="N5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:16">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="6">
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="7">
         <v>140</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>13678945612</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="7">
-        <v>45819</v>
+      <c r="O6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:16">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="6">
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7">
         <v>160</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>13546789230</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="7">
-        <v>45819</v>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:16">
@@ -2588,149 +2748,149 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="7">
+        <v>190</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="7">
+        <v>13432198765</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="1:16">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6">
-        <v>190</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="6">
-        <v>13432198765</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="7">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="9" ht="50" customHeight="1" spans="1:16">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="D9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="7">
         <v>170</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>13398765421</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="7">
-        <v>45819</v>
+      <c r="N9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:16">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="6">
+        <v>93</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="7">
         <v>155</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <v>13265498712</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="7">
-        <v>45819</v>
+      <c r="O10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:16">
@@ -2738,149 +2898,149 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7">
+        <v>185</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7">
+        <v>13176543289</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="1:16">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="7">
+        <v>160</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="7">
+        <v>13012345678</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="1:16">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="6">
-        <v>185</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="6">
-        <v>13176543289</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="7">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1" spans="1:16">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="6">
-        <v>160</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="6">
-        <v>13012345678</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="7">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1" spans="1:16">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="D13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="7">
         <v>165</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>17898765432</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="7">
-        <v>45819</v>
+      <c r="N13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:16">
@@ -2888,149 +3048,149 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="6">
+        <v>124</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="7">
         <v>180</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <v>13787654321</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="6" t="s">
+      <c r="N14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="7">
-        <v>45819</v>
+      <c r="O14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:16">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="6">
+        <v>132</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="7">
         <v>150</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="7">
         <v>13654321987</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" s="6" t="s">
+      <c r="N15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="7">
-        <v>45819</v>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:16">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="D16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="7">
         <v>170</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="7">
         <v>13532198765</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="6" t="s">
+      <c r="N16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="7">
-        <v>45819</v>
+      <c r="P16" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:16">
@@ -3038,149 +3198,149 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="D17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="7">
         <v>200</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="7">
         <v>13498765421</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="7">
-        <v>45819</v>
+      <c r="N17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:16">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="K18" s="6">
         <v>155</v>
       </c>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="7">
+        <v>155</v>
+      </c>
       <c r="L18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>13365498712</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="6" t="s">
+      <c r="N18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="7">
-        <v>45819</v>
+      <c r="O18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:16">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="7">
         <v>160</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>13276543289</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="6" t="s">
+      <c r="N19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="7">
-        <v>45819</v>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:16">
@@ -3188,149 +3348,149 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="7">
+        <v>190</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="7">
+        <v>13187654321</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1" spans="1:16">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="6">
-        <v>190</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="6">
-        <v>13187654321</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="7">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1" spans="1:16">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="7">
+        <v>175</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="7">
+        <v>17098765432</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="1:16">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K21" s="6">
-        <v>175</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="6">
-        <v>17098765432</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="7">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1" spans="1:16">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="E22" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="7">
+        <v>180</v>
+      </c>
       <c r="L22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="7">
         <v>13912345678</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" s="6" t="s">
+      <c r="N22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="7">
-        <v>45819</v>
+      <c r="O22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:16">
@@ -3338,149 +3498,149 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="7">
+        <v>195</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="7">
+        <v>13823456789</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" ht="50" customHeight="1" spans="1:16">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="7">
         <v>165</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="L24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="7">
+        <v>13734567890</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" ht="50" customHeight="1" spans="1:16">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="6">
-        <v>195</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="6">
-        <v>13823456789</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="7">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1" spans="1:16">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="D25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="7">
         <v>170</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="6">
-        <v>165</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="6">
-        <v>13734567890</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="25" ht="50" customHeight="1" spans="1:16">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="6">
-        <v>170</v>
-      </c>
       <c r="L25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="7">
         <v>13645678901</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="7">
-        <v>45819</v>
+      <c r="N25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:16">
@@ -3488,149 +3648,149 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="6">
+        <v>200</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="7">
         <v>185</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="7">
         <v>13556789012</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="6" t="s">
+      <c r="N26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="7">
-        <v>45819</v>
+      <c r="O26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:16">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="E27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="7">
         <v>155</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="7">
         <v>13467890123</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O27" s="6" t="s">
+      <c r="N27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="7">
-        <v>45820</v>
+      <c r="O27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:16">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="D28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" s="7">
         <v>165</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="7">
         <v>13378901234</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O28" s="6" t="s">
+      <c r="N28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P28" s="7">
-        <v>45820</v>
+      <c r="P28" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:16">
@@ -3638,149 +3798,149 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="7">
         <v>190</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K29" s="6">
-        <v>190</v>
-      </c>
       <c r="L29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="7">
         <v>13289012345</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P29" s="7">
-        <v>45820</v>
+      <c r="N29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:16">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" s="7">
+        <v>150</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="7">
+        <v>13190123456</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" ht="50" customHeight="1" spans="1:16">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="6">
-        <v>150</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="6">
-        <v>13190123456</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O30" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" s="7">
+        <v>170</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="7">
+        <v>17823456789</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="31" ht="50" customHeight="1" spans="1:16">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K31" s="6">
-        <v>170</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="6">
-        <v>17823456789</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7">
-        <v>45820</v>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:16">
@@ -3788,149 +3948,149 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>127</v>
+      <c r="D32" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" s="7">
+        <v>200</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="7">
+        <v>13734567890</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" ht="50" customHeight="1" spans="1:16">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K32" s="6">
-        <v>200</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="6">
-        <v>13734567890</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="33" ht="50" customHeight="1" spans="1:16">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="D33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" s="7">
+        <v>160</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="7">
+        <v>13645678901</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" ht="50" customHeight="1" spans="1:16">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="B34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="6">
-        <v>13645678901</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P33" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="34" ht="50" customHeight="1" spans="1:16">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="J34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" s="7">
         <v>155</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="7">
         <v>13556789012</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O34" s="6" t="s">
+      <c r="N34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P34" s="7">
-        <v>45820</v>
+      <c r="O34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:16">
@@ -3938,149 +4098,149 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="7">
+        <v>190</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="7">
+        <v>13467890123</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" ht="50" customHeight="1" spans="1:16">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="7">
+        <v>165</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="7">
+        <v>13378901234</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" ht="50" customHeight="1" spans="1:16">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K35" s="6">
-        <v>190</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="6">
-        <v>13467890123</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="36" ht="50" customHeight="1" spans="1:16">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="K36" s="6">
-        <v>165</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="6">
-        <v>13378901234</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="37" ht="50" customHeight="1" spans="1:16">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K37" s="6">
+      <c r="E37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="7">
         <v>185</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="7">
         <v>13289012345</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P37" s="7">
-        <v>45820</v>
+      <c r="N37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:16">
@@ -4088,149 +4248,149 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" s="7">
+        <v>195</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="7">
+        <v>17823456789</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" ht="50" customHeight="1" spans="1:16">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K38" s="6">
-        <v>195</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="6">
-        <v>17823456789</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O38" s="6" t="s">
+      <c r="H39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" s="7">
+        <v>160</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="7">
+        <v>13734567890</v>
+      </c>
+      <c r="N39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="39" ht="50" customHeight="1" spans="1:16">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K39" s="6">
-        <v>160</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="6">
-        <v>13734567890</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" ht="50" customHeight="1" spans="1:16">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="P39" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="40" ht="50" customHeight="1" spans="1:16">
-      <c r="A40" s="6">
+      <c r="B40" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" s="7">
+        <v>175</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="7">
+        <v>13645678901</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="K40" s="6">
-        <v>175</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="6">
-        <v>13645678901</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P40" s="7">
-        <v>45820</v>
+      <c r="P40" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:16">
@@ -4238,149 +4398,149 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>79</v>
+        <v>273</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K41" s="6">
+        <v>170</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" s="7">
         <v>185</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="7">
         <v>13556789012</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P41" s="7">
-        <v>45820</v>
+      <c r="N41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:16">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K42" s="7">
+        <v>155</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="7">
+        <v>13467890123</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" ht="50" customHeight="1" spans="1:16">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="K42" s="6">
-        <v>155</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="6">
-        <v>13467890123</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O42" s="6" t="s">
+      <c r="E43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" s="7">
+        <v>165</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="7">
+        <v>13378901234</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="43" ht="50" customHeight="1" spans="1:16">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K43" s="6">
-        <v>165</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="6">
-        <v>13378901234</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P43" s="7">
-        <v>45820</v>
+      <c r="O43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:16">
@@ -4388,149 +4548,149 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="D44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="7">
+        <v>185</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="7">
+        <v>17823456789</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" ht="50" customHeight="1" spans="1:16">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K44" s="6">
-        <v>185</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="6">
-        <v>17823456789</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="45" ht="50" customHeight="1" spans="1:16">
-      <c r="A45" s="6">
+      <c r="D45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K45" s="7">
+        <v>150</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="7">
+        <v>13289012345</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" ht="50" customHeight="1" spans="1:16">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K45" s="6">
-        <v>150</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="6">
-        <v>13289012345</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="46" ht="50" customHeight="1" spans="1:16">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K46" s="6">
+      <c r="G46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K46" s="7">
         <v>170</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="7">
         <v>13734567890</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O46" s="6" t="s">
+      <c r="N46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P46" s="7">
-        <v>45820</v>
+      <c r="O46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:16">
@@ -4538,149 +4698,149 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K47" s="7">
+        <v>190</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="7">
+        <v>13645678901</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" ht="50" customHeight="1" spans="1:16">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K48" s="7">
+        <v>160</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="7">
+        <v>13556789012</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" ht="50" customHeight="1" spans="1:16">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="K47" s="6">
-        <v>190</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="6">
-        <v>13645678901</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P47" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="48" ht="50" customHeight="1" spans="1:16">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="K48" s="6">
-        <v>160</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="6">
-        <v>13556789012</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="49" ht="50" customHeight="1" spans="1:16">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K49" s="6">
+      <c r="D49" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K49" s="7">
         <v>165</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="7">
         <v>13467890123</v>
       </c>
-      <c r="N49" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P49" s="7">
-        <v>45820</v>
+      <c r="N49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:16">
@@ -4688,149 +4848,149 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>140</v>
+        <v>311</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F50" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K50" s="7">
+        <v>185</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="7">
+        <v>13378901234</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" ht="50" customHeight="1" spans="1:16">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K51" s="7">
+        <v>175</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="7">
+        <v>17823456789</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" ht="50" customHeight="1" spans="1:16">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K50" s="6">
-        <v>185</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="6">
-        <v>13378901234</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O50" s="6" t="s">
+      <c r="B52" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K52" s="7">
+        <v>180</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="7">
+        <v>13289012345</v>
+      </c>
+      <c r="N52" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="51" ht="50" customHeight="1" spans="1:16">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K51" s="6">
-        <v>175</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="6">
-        <v>17823456789</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P51" s="7">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="52" ht="50" customHeight="1" spans="1:16">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="K52" s="6">
-        <v>180</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="6">
-        <v>13289012345</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O52" s="6" t="s">
+      <c r="O52" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P52" s="7">
-        <v>45820</v>
+      <c r="P52" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9780"/>
+    <workbookView windowWidth="23040" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="302">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天钥桥路</t>
     </r>
     <r>
@@ -424,6 +429,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天钥桥路</t>
     </r>
     <r>
@@ -646,6 +656,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天钥桥路</t>
     </r>
     <r>
@@ -808,6 +823,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天钥桥路</t>
     </r>
     <r>
@@ -909,9 +929,6 @@
     <t>有初中数学教学经验，善于讲解解题思路和方法</t>
   </si>
   <si>
-    <t>2025/6/13</t>
-  </si>
-  <si>
     <t>ZY0606765</t>
   </si>
   <si>
@@ -921,9 +938,6 @@
     <t>英语专业，有高中英语教学经验，口语流利，善于语法教学</t>
   </si>
   <si>
-    <t>2025/6/14</t>
-  </si>
-  <si>
     <t>ZY0606766</t>
   </si>
   <si>
@@ -936,9 +950,6 @@
     <t>有小学语文教学经验，善于引导学生阅读和写作</t>
   </si>
   <si>
-    <t>2025/6/15</t>
-  </si>
-  <si>
     <t>ZY0606767</t>
   </si>
   <si>
@@ -948,9 +959,6 @@
     <t>物理专业，有初中物理教学经验，实验教学经验丰富</t>
   </si>
   <si>
-    <t>2025/6/16</t>
-  </si>
-  <si>
     <t>ZY0606768</t>
   </si>
   <si>
@@ -960,9 +968,6 @@
     <t>化学专业，有高中化学教学经验，善于实验教学</t>
   </si>
   <si>
-    <t>2025/6/17</t>
-  </si>
-  <si>
     <t>ZY0606769</t>
   </si>
   <si>
@@ -975,9 +980,6 @@
     <t>英语专业，有小学英语教学经验，发音标准，善于口语教学</t>
   </si>
   <si>
-    <t>2025/6/18</t>
-  </si>
-  <si>
     <t>ZY0606770</t>
   </si>
   <si>
@@ -987,9 +989,6 @@
     <t>生物专业，有初中生物教学经验，善于激发学生兴趣</t>
   </si>
   <si>
-    <t>2025/6/19</t>
-  </si>
-  <si>
     <t>ZY0606771</t>
   </si>
   <si>
@@ -999,18 +998,12 @@
     <t>地理专业，有高中地理教学经验，善于地图教学和空间分析</t>
   </si>
   <si>
-    <t>2025/6/20</t>
-  </si>
-  <si>
     <t>ZY0606772</t>
   </si>
   <si>
     <t>有小学科学教学经验，善于实验教学，实验器材齐全</t>
   </si>
   <si>
-    <t>2025/6/21</t>
-  </si>
-  <si>
     <t>ZY0606773</t>
   </si>
   <si>
@@ -1020,9 +1013,6 @@
     <t>历史专业，有初中历史教学经验，善于故事化教学和历史事件分析</t>
   </si>
   <si>
-    <t>2025/6/22</t>
-  </si>
-  <si>
     <t>ZY0606774</t>
   </si>
   <si>
@@ -1032,9 +1022,6 @@
     <t>政治专业，有高中政治教学经验，善于逻辑分析和时事热点讲解</t>
   </si>
   <si>
-    <t>2025/6/23</t>
-  </si>
-  <si>
     <t>ZY0606775</t>
   </si>
   <si>
@@ -1044,9 +1031,6 @@
     <t>有小学音乐教学经验，擅长声乐和乐器演奏，教学经验丰富</t>
   </si>
   <si>
-    <t>2025/6/24</t>
-  </si>
-  <si>
     <t>ZY0606776</t>
   </si>
   <si>
@@ -1059,9 +1043,6 @@
     <t>计算机专业，有初中信息技术教学经验，熟悉多种编程语言</t>
   </si>
   <si>
-    <t>2025/6/25</t>
-  </si>
-  <si>
     <t>ZY0606777</t>
   </si>
   <si>
@@ -1071,9 +1052,6 @@
     <t>美术专业，有高中美术教学经验，擅长素描和色彩，能因材施教</t>
   </si>
   <si>
-    <t>2025/6/26</t>
-  </si>
-  <si>
     <t>ZY0606778</t>
   </si>
   <si>
@@ -1086,9 +1064,6 @@
     <t>体育专业，有小学体育教学经验，擅长篮球、足球和田径教学</t>
   </si>
   <si>
-    <t>2025/6/27</t>
-  </si>
-  <si>
     <t>ZY0606779</t>
   </si>
   <si>
@@ -1101,9 +1076,6 @@
     <t>有初中数学教学经验，善于讲解解题思路和方法，教学耐心细致</t>
   </si>
   <si>
-    <t>2025/6/28</t>
-  </si>
-  <si>
     <t>ZY0606780</t>
   </si>
   <si>
@@ -1113,25 +1085,16 @@
     <t>英语专业，有高中英语教学经验，口语流利，善于语法和写作教学</t>
   </si>
   <si>
-    <t>2025/6/29</t>
-  </si>
-  <si>
     <t>ZY0606781</t>
   </si>
   <si>
     <t>有小学语文教学经验，善于引导学生阅读和写作，有双胞胎教学经验</t>
   </si>
   <si>
-    <t>2025/6/30</t>
-  </si>
-  <si>
     <t>ZY0606782</t>
   </si>
   <si>
     <t>物理专业，有初中物理教学经验，善于实验教学和概念讲解</t>
-  </si>
-  <si>
-    <t>2025/6/31</t>
   </si>
 </sst>
 </file>
@@ -2373,8 +2336,8 @@
   <sheetPr/>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -2387,7 +2350,7 @@
     <col min="8" max="8" width="27.3796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.9166666666667" style="3" customWidth="1"/>
     <col min="10" max="10" width="30.3518518518519" style="3" customWidth="1"/>
-    <col min="11" max="11" width="30.7962962962963" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.6944444444444" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.3333333333333" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.3333333333333" style="3"/>
     <col min="14" max="16" width="14" style="3"/>
@@ -4090,7 +4053,7 @@
         <v>40</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:16">
@@ -4098,7 +4061,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>31</v>
@@ -4116,13 +4079,13 @@
         <v>45</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>166</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7">
         <v>190</v>
@@ -4140,7 +4103,7 @@
         <v>40</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:16">
@@ -4148,7 +4111,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>17</v>
@@ -4166,13 +4129,13 @@
         <v>65</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="K36" s="7">
         <v>165</v>
@@ -4190,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:16">
@@ -4198,7 +4161,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -4216,13 +4179,13 @@
         <v>55</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>182</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7">
         <v>185</v>
@@ -4240,7 +4203,7 @@
         <v>60</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:16">
@@ -4248,7 +4211,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>31</v>
@@ -4266,13 +4229,13 @@
         <v>80</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7">
         <v>195</v>
@@ -4290,7 +4253,7 @@
         <v>40</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:16">
@@ -4298,7 +4261,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>31</v>
@@ -4316,13 +4279,13 @@
         <v>45</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K39" s="7">
         <v>160</v>
@@ -4340,7 +4303,7 @@
         <v>40</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:16">
@@ -4348,7 +4311,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>17</v>
@@ -4366,13 +4329,13 @@
         <v>103</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>197</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K40" s="7">
         <v>175</v>
@@ -4390,7 +4353,7 @@
         <v>28</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:16">
@@ -4398,7 +4361,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>51</v>
@@ -4416,13 +4379,13 @@
         <v>127</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>193</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K41" s="7">
         <v>185</v>
@@ -4440,7 +4403,7 @@
         <v>60</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:16">
@@ -4448,7 +4411,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>31</v>
@@ -4472,7 +4435,7 @@
         <v>203</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K42" s="7">
         <v>155</v>
@@ -4490,7 +4453,7 @@
         <v>40</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:16">
@@ -4498,7 +4461,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>31</v>
@@ -4516,13 +4479,13 @@
         <v>119</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>220</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K43" s="7">
         <v>165</v>
@@ -4540,7 +4503,7 @@
         <v>40</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:16">
@@ -4548,7 +4511,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>17</v>
@@ -4566,13 +4529,13 @@
         <v>143</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>137</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K44" s="7">
         <v>185</v>
@@ -4590,7 +4553,7 @@
         <v>28</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:16">
@@ -4598,7 +4561,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>51</v>
@@ -4619,10 +4582,10 @@
         <v>136</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K45" s="7">
         <v>150</v>
@@ -4640,7 +4603,7 @@
         <v>60</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:16">
@@ -4648,7 +4611,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>31</v>
@@ -4666,13 +4629,13 @@
         <v>151</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K46" s="7">
         <v>170</v>
@@ -4690,7 +4653,7 @@
         <v>40</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:16">
@@ -4698,7 +4661,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>31</v>
@@ -4716,13 +4679,13 @@
         <v>158</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>160</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="K47" s="7">
         <v>190</v>
@@ -4740,7 +4703,7 @@
         <v>40</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:16">
@@ -4748,7 +4711,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>17</v>
@@ -4766,13 +4729,13 @@
         <v>238</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="K48" s="7">
         <v>160</v>
@@ -4790,7 +4753,7 @@
         <v>28</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:16">
@@ -4798,7 +4761,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>51</v>
@@ -4816,13 +4779,13 @@
         <v>35</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="K49" s="7">
         <v>165</v>
@@ -4840,7 +4803,7 @@
         <v>60</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:16">
@@ -4848,7 +4811,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>31</v>
@@ -4866,13 +4829,13 @@
         <v>45</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>193</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="K50" s="7">
         <v>185</v>
@@ -4890,7 +4853,7 @@
         <v>40</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:16">
@@ -4898,7 +4861,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>31</v>
@@ -4919,10 +4882,10 @@
         <v>176</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="K51" s="7">
         <v>175</v>
@@ -4940,7 +4903,7 @@
         <v>40</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:16">
@@ -4948,7 +4911,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>17</v>
@@ -4972,7 +4935,7 @@
         <v>182</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="K52" s="7">
         <v>180</v>
@@ -4990,7 +4953,7 @@
         <v>28</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="9780"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -44,7 +44,7 @@
     <t>创建日期</t>
   </si>
   <si>
-    <t>ZY061301</t>
+    <t>ZYxxxxxxx</t>
   </si>
   <si>
     <t>加急单</t>
@@ -62,10 +62,7 @@
 【备注】线下</t>
   </si>
   <si>
-    <t>2025/6/13</t>
-  </si>
-  <si>
-    <t>ZY061302</t>
+    <t>2025/6/11</t>
   </si>
   <si>
     <t>🌸 上海线下ZY0606727(#近交大医学院#近同济四平路#上财国定路#交大徐汇）（6.9加急加急）
@@ -77,7 +74,7 @@
 【老师薪资】220－260/2h</t>
   </si>
   <si>
-    <t>ZY061303</t>
+    <t>2025/6/12</t>
   </si>
   <si>
     <t>🌸上海线下 ZY0605725(6.7加急)(#上对外古北超近#东华延安路超近#华政长宁#华师普陀#上外虹口#上师徐汇)
@@ -89,7 +86,7 @@
 【老师薪资】160－180/2h</t>
   </si>
   <si>
-    <t>ZY061304</t>
+    <t>2025/6/13</t>
   </si>
   <si>
     <t>💚 上海线下 ZY0602698(加急)(#上外虹口超近#同济四平路#复旦邯郸#上财国定路#交大医学院#华师普陀)
@@ -101,9 +98,6 @@
 【老师薪资】300－360/2h</t>
   </si>
   <si>
-    <t>ZY061305</t>
-  </si>
-  <si>
     <t>🌸 上海线下ZY0526663（6.4加急信息费打折）
 【辅导地址】杨浦区延吉中路城市丽园245弄
 【辅导科目】 初三，数理化最后冲刺
@@ -113,9 +107,6 @@
 【老师薪资】500－600/2h</t>
   </si>
   <si>
-    <t>ZY061306</t>
-  </si>
-  <si>
     <t>新单</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
 【老师薪资】200-240/2h</t>
   </si>
   <si>
-    <t>ZY061307</t>
-  </si>
-  <si>
     <t>🌸上海线下ZY0607740(#近华师普陀)
 【辅导地址】普陀区中潭路91弄
 【辅导科目】 五升六，语文 英语
@@ -140,9 +128,6 @@
 【老师薪资】200-240/2h</t>
   </si>
   <si>
-    <t>ZY061308</t>
-  </si>
-  <si>
     <t>🌸 上海线下 ZY0607738(#复旦江湾#上财国定路#复旦邯郸#上外虹口#同济四平路)
 【辅导地址】杨浦区湾谷科技园(办公休息室辅导)
 【辅导科目】五升六 主要语文写作，其次是英语听力＋词汇， 数学预习新知
@@ -152,9 +137,6 @@
 【老师薪资】200-220/2h</t>
   </si>
   <si>
-    <t>ZY061309</t>
-  </si>
-  <si>
     <t>💚上海线上ZY0610750
 【辅导地址】线上
 【辅导科目】升初三 英语
@@ -164,9 +146,6 @@
 【老师薪资】200/2h</t>
   </si>
   <si>
-    <t>ZY061310</t>
-  </si>
-  <si>
     <t>🌸上海线下 ZY0609749(#华师普陀#上科大#上中医#交大医学院)
 【辅导地址】闵行区浦江华侨城
 【辅导科目】 二升三，主要语文，数学顺带
@@ -176,9 +155,6 @@
 【老师薪资】220-240/2h</t>
   </si>
   <si>
-    <t>ZY061311</t>
-  </si>
-  <si>
     <t>好单</t>
   </si>
   <si>
@@ -191,12 +167,6 @@
 【老师薪资】周内300/2h，周末500/4h</t>
   </si>
   <si>
-    <t>ZY061312</t>
-  </si>
-  <si>
-    <t>ZY061313</t>
-  </si>
-  <si>
     <t>💚 上海线下 ZY0606732(复旦枫林#交大徐汇#华师普陀#上师徐汇)
 【辅导地址】徐汇区天钥桥路191弄
 【辅导科目】 初一 作业辅导＋第二天新知预习
@@ -206,9 +176,6 @@
 【老师薪资】240－300/2h</t>
   </si>
   <si>
-    <t>ZY061314</t>
-  </si>
-  <si>
     <t>💚上海线下 ZY0510588（#华师普陀超近#华政长宁#上海对外经贸超近#东华大学）
 【辅导地址】普陀区水泉路上海西站地铁口
 【辅导科目】 大班 数学英语
@@ -218,9 +185,6 @@
 【老师薪资】 200/2h</t>
   </si>
   <si>
-    <t>ZY061315</t>
-  </si>
-  <si>
     <t>💚 上海线下 ZY0507577（#交大徐汇2公里#东华大学3公里）（5.18重派）
 【辅导地址】长宁区延安西路649弄
 【辅导科目】八年级 作业辅导
@@ -230,9 +194,6 @@
 【老师薪资】360/3h</t>
   </si>
   <si>
-    <t>ZY061316</t>
-  </si>
-  <si>
     <t>专职单</t>
   </si>
   <si>
@@ -245,9 +206,6 @@
 【老师薪资】500/2h</t>
   </si>
   <si>
-    <t>ZY061317</t>
-  </si>
-  <si>
     <t>🌸 上海线下 ZY0606730
 【辅导地址】杨浦区殷行路殷行二村
 【辅导科目】 四年级 英语
@@ -255,9 +213,6 @@
 【辅导时间】 2次/周  2h/次 ，时间待定
 【教员要求】专职在职老师，经验丰富，耐心负责，擅长补基础
 【老师薪资】400/2h</t>
-  </si>
-  <si>
-    <t>ZY061318</t>
   </si>
   <si>
     <t xml:space="preserve">🌸 上海线下 ZY0523652b（加急）
@@ -270,9 +225,6 @@
 </t>
   </si>
   <si>
-    <t>ZY061319</t>
-  </si>
-  <si>
     <t>🌸上海线下 ZY0524654(加急)
 【辅导地址】宝山区申浦路288弄
 【辅导科目】 初三 英语
@@ -282,9 +234,6 @@
 【老师薪资】500-600/2h</t>
   </si>
   <si>
-    <t>ZY061320</t>
-  </si>
-  <si>
     <t>🌸 上海线下ZY0526663（6.4加急）
 【辅导地址】杨浦区延吉中路城市丽园245弄
 【辅导科目】 初三，数理化最后冲刺
@@ -294,9 +243,6 @@
 【老师薪资】500－600/2h</t>
   </si>
   <si>
-    <t>ZY061321</t>
-  </si>
-  <si>
     <t>暑假单</t>
   </si>
   <si>
@@ -309,9 +255,6 @@
 【老师薪资】240－300/3h</t>
   </si>
   <si>
-    <t>ZY061322</t>
-  </si>
-  <si>
     <t>🌸上海线下 ZY06023704(#华师闵行)
 【辅导地址】闵行区嘉怡水岸小区紫龙路500弄
 【辅导科目】 一年级语文
@@ -321,9 +264,6 @@
 【老师薪资】80-90/h</t>
   </si>
   <si>
-    <t>ZY061323</t>
-  </si>
-  <si>
     <t>🌸上海线下 ZY0602700(#上财国定路#上外虹口#复旦邯郸#同济四平路)
 【辅导地址】暑假搬家到宝山万达附近
 【辅导科目】 一年级 语数英
@@ -333,9 +273,6 @@
 【老师薪资】160－200/2h</t>
   </si>
   <si>
-    <t>ZY061324</t>
-  </si>
-  <si>
     <t>🌸 上海线下 ZY0606734(加急）(#上科大#上中医#复旦枫林#交大医学院#交大徐汇)
 【辅导地址】浦东新区虹御公寓
 【辅导科目】 升高二 预习全科
@@ -343,9 +280,6 @@
 【辅导时间】 暑期上课，5次/周  6－7h/次 。后续优秀下学期也安排
 【教员要求】大学生老师，好沟通，性格好，经验丰富
 【老师薪资】12000/月</t>
-  </si>
-  <si>
-    <t>ZY061325</t>
   </si>
   <si>
     <t>💚上海线下 ZY0527671（#上财国定路#复旦邯郸#同济四平路#上外虹口#复旦江湾）
@@ -1008,7 +942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,9 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,7 +1499,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1599,7 +1530,7 @@
       </c>
     </row>
     <row r="2" ht="144" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1608,419 +1539,419 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="115.2" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" ht="115.2" spans="1:5">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="115.2" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="100.8" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="115.2" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="100.8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="100.8" spans="1:5">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" ht="115.2" spans="1:5">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="115.2" spans="1:5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="100.8" spans="1:5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="100.8" spans="1:5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="100.8" spans="1:5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="100.8" spans="1:5">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="100.8" spans="1:5">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="129.6" spans="1:5">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="100.8" spans="1:5">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="100.8" spans="1:5">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="100.8" spans="1:5">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="100.8" spans="1:5">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="100.8" spans="1:5">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="115.2" spans="1:5">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="100.8" spans="1:5">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="100.8" spans="1:5">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="1:5">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="1:5">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="100.8" spans="1:5">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="115.2" spans="1:5">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="100.8" spans="1:5">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="100.8" spans="1:5">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="100.8" spans="1:5">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="100.8" spans="1:5">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="100.8" spans="1:5">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="100.8" spans="1:5">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="129.6" spans="1:5">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="100.8" spans="1:5">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="100.8" spans="1:5">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="100.8" spans="1:5">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="115.2" spans="1:5">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" ht="100.8" spans="1:5">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="100.8" spans="1:5">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" ht="115.2" spans="1:5">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>8</v>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowWidth="8327" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>2025/6/13</t>
   </si>
   <si>
-    <t>💚 上海线下 ZY0602698(加急)(#上外虹口超近#同济四平路#复旦邯郸#上财国定路#交大医学院#华师普陀)
+    <t>💚 上海线下 ZY0602698(加急)(#上外虹口超近#同济大学四平路#复旦邯郸#上财国定路#交大医学院#华师普陀)
 【辅导地址】虹口足球场地铁站附近
 【辅导科目】 升高三 物 化
 【学员情况】 女孩 成绩中等
@@ -98,7 +98,7 @@
 【老师薪资】300－360/2h</t>
   </si>
   <si>
-    <t>🌸 上海线下ZY0526663（6.4加急信息费打折）
+    <t>🌸 上海线下ZY0526663（6.4加急信息费打折 #上海交通大学）
 【辅导地址】杨浦区延吉中路城市丽园245弄
 【辅导科目】 初三，数理化最后冲刺
 【学员情况】 女孩，基础薄弱
@@ -110,7 +110,7 @@
     <t>新单</t>
   </si>
   <si>
-    <t>🌸上海线下ZY0607741a(#同济四平路#交大医学院#复旦枫林#交大徐汇#上外虹口#上财国定路)
+    <t>🌸上海线下ZY0607741a(#同济四平路#交大医学院#复旦大学枫林#交大徐汇#上外虹口#上财国定路)
 【辅导地址】浦东新区商城路1025弄
 【辅导科目】 四升五，语文
 【学员情况】女孩，80-85分
@@ -1498,8 +1498,8 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/111.xlsx
+++ b/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8327" windowHeight="7380"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>序号</t>
   </si>
@@ -194,9 +194,6 @@
 【老师薪资】360/3h</t>
   </si>
   <si>
-    <t>专职单</t>
-  </si>
-  <si>
     <t>🌸 上海线下 ZY0606733
 【辅导地址】松江区月亮河碧园弘翔路216号
 【辅导科目】 初二 数学
@@ -213,6 +210,9 @@
 【辅导时间】 2次/周  2h/次 ，时间待定
 【教员要求】专职在职老师，经验丰富，耐心负责，擅长补基础
 【老师薪资】400/2h</t>
+  </si>
+  <si>
+    <t>2025/6/14</t>
   </si>
   <si>
     <t xml:space="preserve">🌸 上海线下 ZY0523652b（加急）
@@ -241,9 +241,6 @@
 【辅导时间】6月7日下午，12.13日时间可协商
 【教员要求】专职在职老师，数理化都可以辅导，能冲刺提分
 【老师薪资】500－600/2h</t>
-  </si>
-  <si>
-    <t>暑假单</t>
   </si>
   <si>
     <t>🌸 上海线下 ZY0603707(#上政青浦#华政松江#上对外松江#上外松江#同济嘉定)
@@ -1498,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1792,10 +1789,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>12</v>
@@ -1809,13 +1806,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="129.6" spans="1:5">
@@ -1826,13 +1823,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="100.8" spans="1:5">
@@ -1843,13 +1840,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="100.8" spans="1:5">
@@ -1860,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="100.8" spans="1:5">
@@ -1877,13 +1874,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="115.2" spans="1:5">
@@ -1894,13 +1891,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="100.8" spans="1:5">
@@ -1911,13 +1908,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="100.8" spans="1:5">
@@ -1928,13 +1925,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="100.8" spans="1:5">
@@ -1945,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>序号</t>
   </si>
@@ -44,7 +44,7 @@
     <t>创建日期</t>
   </si>
   <si>
-    <t>ZYxxxxxxx</t>
+    <t>ZY0606732</t>
   </si>
   <si>
     <t>加急单</t>
@@ -65,6 +65,9 @@
     <t>2025/6/11</t>
   </si>
   <si>
+    <t>ZY0606727</t>
+  </si>
+  <si>
     <t>🌸 上海线下ZY0606727(#近交大医学院#近同济四平路#上财国定路#交大徐汇）（6.9加急加急）
 【辅导地址】浦东新区源深体育场附近(交通很便利)
 【辅导科目】 六升七 语数英
@@ -77,6 +80,9 @@
     <t>2025/6/12</t>
   </si>
   <si>
+    <t>ZY0605725</t>
+  </si>
+  <si>
     <t>🌸上海线下 ZY0605725(6.7加急)(#上对外古北超近#东华延安路超近#华政长宁#华师普陀#上外虹口#上师徐汇)
 【辅导地址】长宁区云雾山路23号
 【辅导科目】 五升六，语数英辅导
@@ -89,6 +95,9 @@
     <t>2025/6/13</t>
   </si>
   <si>
+    <t>ZY0602698</t>
+  </si>
+  <si>
     <t>💚 上海线下 ZY0602698(加急)(#上外虹口超近#同济大学四平路#复旦邯郸#上财国定路#交大医学院#华师普陀)
 【辅导地址】虹口足球场地铁站附近
 【辅导科目】 升高三 物 化
@@ -96,6 +105,9 @@
 【辅导时间】1 次/周  2h/次 ，周末上课，老师优秀暑期继续安排
 【教员要求】能力第一位的，会解题会讲明白
 【老师薪资】300－360/2h</t>
+  </si>
+  <si>
+    <t>ZYxxxxxxx</t>
   </si>
   <si>
     <t>🌸 上海线下ZY0526663（6.4加急信息费打折 #上海交通大学）
@@ -1496,7 +1508,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1548,16 +1560,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="115.2" spans="1:5">
@@ -1565,16 +1577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="115.2" spans="1:5">
@@ -1582,16 +1594,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="100.8" spans="1:5">
@@ -1599,16 +1611,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" ht="115.2" spans="1:5">
@@ -1616,16 +1628,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="100.8" spans="1:5">
@@ -1633,16 +1645,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="100.8" spans="1:5">
@@ -1650,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="100.8" spans="1:5">
@@ -1667,16 +1679,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="100.8" spans="1:5">
@@ -1684,16 +1696,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="115.2" spans="1:5">
@@ -1701,16 +1713,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="100.8" spans="1:5">
@@ -1718,16 +1730,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="100.8" spans="1:5">
@@ -1735,16 +1747,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="100.8" spans="1:5">
@@ -1752,16 +1764,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="100.8" spans="1:5">
@@ -1769,16 +1781,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="100.8" spans="1:5">
@@ -1786,16 +1798,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="100.8" spans="1:5">
@@ -1803,16 +1815,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="129.6" spans="1:5">
@@ -1820,16 +1832,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="100.8" spans="1:5">
@@ -1837,16 +1849,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="100.8" spans="1:5">
@@ -1854,16 +1866,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="100.8" spans="1:5">
@@ -1871,16 +1883,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" ht="115.2" spans="1:5">
@@ -1888,16 +1900,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="100.8" spans="1:5">
@@ -1905,16 +1917,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="100.8" spans="1:5">
@@ -1922,16 +1934,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="100.8" spans="1:5">
@@ -1939,16 +1951,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
   <si>
     <t>序号</t>
   </si>
@@ -35,6 +35,9 @@
     <t>单号</t>
   </si>
   <si>
+    <t>特殊类型</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>加急单</t>
+  </si>
+  <si>
+    <t>暑假单</t>
   </si>
   <si>
     <t>【单号】ZY0606732
@@ -68,6 +74,9 @@
     <t>ZY0606727</t>
   </si>
   <si>
+    <t>专职单</t>
+  </si>
+  <si>
     <t>🌸 上海线下ZY0606727(#近交大医学院#近同济四平路#上财国定路#交大徐汇）（6.9加急加急）
 【辅导地址】浦东新区源深体育场附近(交通很便利)
 【辅导科目】 六升七 语数英
@@ -83,6 +92,9 @@
     <t>ZY0605725</t>
   </si>
   <si>
+    <t>大学生单</t>
+  </si>
+  <si>
     <t>🌸上海线下 ZY0605725(6.7加急)(#上对外古北超近#东华延安路超近#华政长宁#华师普陀#上外虹口#上师徐汇)
 【辅导地址】长宁区云雾山路23号
 【辅导科目】 五升六，语数英辅导
@@ -96,6 +108,9 @@
   </si>
   <si>
     <t>ZY0602698</t>
+  </si>
+  <si>
+    <t>特长单</t>
   </si>
   <si>
     <t>💚 上海线下 ZY0602698(加急)(#上外虹口超近#同济大学四平路#复旦邯郸#上财国定路#交大医学院#华师普陀)
@@ -1505,23 +1520,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="1"/>
     <col min="2" max="2" width="15.6481481481481" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.2592592592593" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.037037037037" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+    <col min="3" max="4" width="15.2592592592593" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76.037037037037" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1531,436 +1546,514 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="144" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="144" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="115.2" spans="1:5">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="115.2" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="115.2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="115.2" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="115.2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="115.2" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="100.8" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="100.8" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="115.2" spans="1:5">
+    </row>
+    <row r="7" ht="115.2" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="100.8" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="100.8" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="100.8" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="100.8" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="100.8" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="100.8" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="115.2" spans="1:5">
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="115.2" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="100.8" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="100.8" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="100.8" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="100.8" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="100.8" spans="1:5">
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="100.8" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="129.6" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="129.6" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="100.8" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="100.8" spans="1:6">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="100.8" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" ht="115.2" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" ht="115.2" spans="1:6">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" ht="100.8" spans="1:5">
+    </row>
+    <row r="24" ht="100.8" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="1:6">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" ht="100.8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="1:6">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowWidth="22176" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
   <si>
     <t>序号</t>
   </si>
@@ -286,6 +286,9 @@
 【辅导时间】  暑期，每周三次，1h/次，带小朋友养成语文阅读习惯(如果薪资再低一些可以每天上)
 【教员要求】认真负责有耐心
 【老师薪资】80-90/h</t>
+  </si>
+  <si>
+    <t>2025/6/15</t>
   </si>
   <si>
     <t>🌸上海线下 ZY0602700(#上财国定路#上外虹口#复旦邯郸#同济四平路)
@@ -1522,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1993,7 +1996,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="100.8" spans="1:6">
@@ -2010,10 +2013,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" ht="100.8" spans="1:6">
@@ -2030,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="100.8" spans="1:6">
@@ -2050,10 +2053,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
